--- a/data/data_logiciels_original.xlsx
+++ b/data/data_logiciels_original.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\M2\LanguageScript\Projet\LangageScript_git\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stone\Desktop\lang_script\LangageScript\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ECE1BA-A788-48E7-B3AD-285FB3EC563E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="1820" windowWidth="19540" windowHeight="12520"/>
+    <workbookView xWindow="1845" yWindow="1815" windowWidth="19545" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="49">
   <si>
     <t>+++</t>
   </si>
@@ -149,23 +150,41 @@
     <t>Aide</t>
   </si>
   <si>
-    <t>Aide_Profil</t>
-  </si>
-  <si>
-    <t>Protection_Profil</t>
-  </si>
-  <si>
-    <t>Ordinateurs_Profil</t>
-  </si>
-  <si>
-    <t>Mobiles_Profil</t>
+    <t>Bornes</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Valeurs</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Très Insuffisant</t>
+  </si>
+  <si>
+    <t>Insuffisant</t>
+  </si>
+  <si>
+    <t>Acceptable</t>
+  </si>
+  <si>
+    <t>Bon</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>Très Bon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -188,16 +207,36 @@
       <color theme="1"/>
       <name val="LMMathSymbols10"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="NimbusRomNo9L"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -205,17 +244,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,458 +589,470 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.58203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="14.625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="11" width="10.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" customWidth="1"/>
-    <col min="13" max="15" width="16.75" customWidth="1"/>
-    <col min="16" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="16.875" customWidth="1"/>
+    <col min="13" max="13" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>15</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9">
+        <v>17</v>
+      </c>
+      <c r="J2" s="9">
+        <v>20</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="O2" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="8">
+        <v>14</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
+        <v>13</v>
+      </c>
+      <c r="J3" s="9">
+        <v>16.5</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="8">
+        <v>13</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="9">
+        <v>10</v>
+      </c>
+      <c r="J4" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G2">
-        <v>0.35</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="L4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="8">
+        <v>13</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="9">
+        <v>7</v>
+      </c>
+      <c r="J5" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>12.5</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J2">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="8">
+        <v>12.5</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="8">
+        <v>12</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="8">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>0.35</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>13</v>
-      </c>
-      <c r="J3">
-        <v>16.5</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>0.2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4">
-        <v>12.5</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>0.1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>7</v>
-      </c>
-      <c r="J5">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="8">
         <v>9.5</v>
       </c>
-      <c r="K5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" t="s">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>6.5</v>
-      </c>
-      <c r="K6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3">
-        <v>12</v>
-      </c>
-      <c r="P8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3">
-        <v>11</v>
-      </c>
-      <c r="P9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="8">
         <v>9.5</v>
       </c>
-      <c r="P10" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="P11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -988,7 +1060,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:15">
       <c r="A13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -997,5 +1069,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/data_logiciels_original.xlsx
+++ b/data/data_logiciels_original.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28016"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stone\Desktop\lang_script\LangageScript\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ikrambouhya/Desktop/M2 Dauphine ID/Projet-final/LangageScript/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ECE1BA-A788-48E7-B3AD-285FB3EC563E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="1815" windowWidth="19545" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1840" yWindow="1820" windowWidth="19540" windowHeight="12520"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,18 +19,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="48">
   <si>
     <t>+++</t>
   </si>
@@ -73,9 +72,6 @@
   </si>
   <si>
     <t>b5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+++ </t>
   </si>
   <si>
     <t>b4</t>
@@ -183,8 +179,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -246,16 +242,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -275,7 +271,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,45 +585,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="11" width="10.625" customWidth="1"/>
-    <col min="12" max="12" width="16.875" customWidth="1"/>
-    <col min="13" max="13" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.125" customWidth="1"/>
+    <col min="10" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>6</v>
@@ -645,24 +641,24 @@
         <v>10</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -698,18 +694,18 @@
         <v>12</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>0</v>
@@ -742,21 +738,21 @@
         <v>13</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>2</v>
@@ -786,24 +782,24 @@
         <v>12.5</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="M4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="9" t="s">
-        <v>23</v>
-      </c>
       <c r="O4" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -833,24 +829,24 @@
         <v>9.5</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>1</v>
@@ -878,24 +874,24 @@
         <v>6.5</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>1</v>
@@ -917,20 +913,20 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>2</v>
@@ -954,14 +950,14 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>4</v>
@@ -985,14 +981,14 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>2</v>
@@ -1016,14 +1012,14 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>1</v>
@@ -1047,12 +1043,12 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1060,7 +1056,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
